--- a/documents/analyse_uml/usecase_textuel/use_case_mdp_oublié/Motdepasseoublier.xlsx
+++ b/documents/analyse_uml/usecase_textuel/use_case_mdp_oublié/Motdepasseoublier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Quideance\documents\analyse_uml\usecase_textuel\use_case_mdp_oublié\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E521EADB-7B23-4B0A-9D17-8F484A4E9245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A128E7-F620-45B9-9665-B8B1AEEC00F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27600" windowHeight="15630" xr2:uid="{793503A8-6415-41B0-B764-3B8D3A2B6A8C}"/>
   </bookViews>
@@ -35,31 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PRECONDITIONS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : Le site est en ligne et la connexion au serveur de BDD est opérationnelle.
-- Etre connecté en tant que super admin</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>SCENARIO NOMINAL</t>
   </si>
@@ -134,69 +110,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A1) Le formulaire n'est pas renseigné correctement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-a lieu au point 5) du nominal
-Quideance affiche un message d'erreur adéquat et retourne au point 3) du nominal
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E2) Erreur serveur</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-a lieu au point 6) du nominal
-Quideance affiche un message d'erreur adéquat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>On sort du USE CASE sur un échec</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>NOM DU USE CASE</t>
     </r>
     <r>
@@ -294,14 +207,6 @@
     <t>6) Quideance envoie un lien de récupération sur l'adresse mail de l'administrateur</t>
   </si>
   <si>
-    <t xml:space="preserve"> l'utilisateur clique sur le lien de récupération .
-4. l'application le dirige vers la page de modification 
-   de mot de passe.
-5. l'admin ou le superAdmin modifie son mot de passe .
-6. l'admin ou le superAdmin valide la modification. 
-7. Redirection vers la page d'accueil de l'application.</t>
-  </si>
-  <si>
     <t>7) L'aministrateur clique sur le lien de récupération</t>
   </si>
   <si>
@@ -315,6 +220,166 @@
   </si>
   <si>
     <t>11) Quideance redirige vers la page de connexion</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A1) Le formulaire n'est pas renseigné correctement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a lieu au point 4) du nominal
+Quideance affiche un message d'erreur adéquat et retourne au point 3) du nominal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A2) Le formulaire n'est pas renseigné correctement. (email non valide)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a lieu au point 4) du nominal
+Quideance affiche un message d'erreur adéquat et retourne au point 3) du nominal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A3) Le lien de récupération ne fonctionne pas.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a lieu au point 6) du nominal
+Quideance affiche un message d'erreur adéquat et retourne au point 3) du nominal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A4) Le formulaire n'est pas renseigné correctement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a lieu au point 10) du nominal
+Quideance affiche un message d'erreur adéquat et retourne au point 9) du nominal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E2) Erreur serveur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a lieu au point 7) du nominal
+Quideance affiche un message d'erreur adéquat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>On sort du USE CASE sur un échec</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PRECONDITIONS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Le site est en ligne et la connexion au serveur de BDD est opérationnelle.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -440,10 +505,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -456,6 +517,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,7 +838,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,35 +849,35 @@
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -822,83 +887,89 @@
     </row>
     <row r="5" spans="1:4" ht="90.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="75.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="75.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="75.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -908,15 +979,14 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="27" spans="1:1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>16</v>
-      </c>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>